--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
     <sheet name="gifts" sheetId="2" r:id="rId2"/>
+    <sheet name="help_Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>index|序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,8 +295,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gift_hllb</t>
+  </si>
+  <si>
+    <t>gift_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10515,10516,10517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10518,10519,10520,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10521,10522,10523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10524,10525,10526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_nor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fffae1","af2a22"</t>
+  </si>
+  <si>
+    <t>"60万金币","6万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","彩球加成"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,彩球增加10%;\n任意购买2个礼包,彩球增加30%;\n任意购买3个礼包,彩球增加50%。"</t>
+  </si>
+  <si>
+    <t>act_002_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万","彩球加成"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"180万金币","7万","福气加成"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hllb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line|行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content|规则内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、加成效果仅限购买礼包当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、购买礼包后，排行榜上的彩球数获得对应加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx","ty_icon_yb_3","hllb_icon_cqjc"</t>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx2","ty_icon_yb_4","hllb_icon_cqjc"</t>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx3","ty_icon_yb_5","hllb_icon_cqjc"</t>
   </si>
 </sst>
 </file>
@@ -374,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +523,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -683,7 +809,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -755,14 +881,37 @@
         <v>33</v>
       </c>
       <c r="I2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1618272000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1618847999</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -858,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -999,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>42</v>
@@ -1108,6 +1257,182 @@
         <v>40</v>
       </c>
       <c r="P5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1116,4 +1441,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="52.125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -365,9 +365,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -385,6 +385,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -394,7 +422,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,66 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -477,31 +484,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +500,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -523,10 +523,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -534,11 +539,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -555,187 +555,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,39 +746,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -812,6 +779,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -827,11 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,8 +1341,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1459,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="4">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="F4" s="4">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
@@ -1565,8 +1565,8 @@
   <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2179,8 +2179,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
   <si>
     <t>index|序号</t>
   </si>
@@ -116,6 +116,18 @@
     <t>9,10,11,12</t>
   </si>
   <si>
+    <t>gift_sxlb</t>
+  </si>
+  <si>
+    <t>act_004_sxlb</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+  </si>
+  <si>
     <t>gift_key|礼包key</t>
   </si>
   <si>
@@ -347,13 +359,73 @@
     <t>"4980万金币","1688","欢乐券加成"</t>
   </si>
   <si>
+    <t>10587,10588,10589</t>
+  </si>
+  <si>
+    <t>"60万金币","6万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","xg_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","xg_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","xg_icon_1"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,西瓜增加10%;\n任意购买2个礼包,西瓜增加30%;\n任意购买3个礼包,西瓜增加50%。"</t>
+  </si>
+  <si>
+    <t>10590,10591,10592</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>10593,10594,10595</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","xg_icon_1"</t>
+  </si>
+  <si>
+    <t>10596,10597,10598</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","西瓜加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","xg_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","xg_icon_1"</t>
+  </si>
+  <si>
     <t>line|行号</t>
   </si>
   <si>
     <t>content|规则内容</t>
   </si>
   <si>
-    <t>1、购买礼包，在3D捕鱼、街机捕鱼、海底冒险中获得的欢乐券在排行榜中有额外加成</t>
+    <t>1、购买礼包，在3D捕鱼、街机捕鱼、海底冒险中获得的西瓜在排行榜中有额外加成</t>
   </si>
   <si>
     <t>2、加成效果仅限购买礼包当日</t>
@@ -364,9 +436,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -386,14 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,8 +471,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,17 +501,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,8 +523,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -467,23 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -492,23 +587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,23 +601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -555,12 +627,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,7 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +717,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,55 +759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,79 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +818,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -760,6 +847,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,39 +884,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,6 +895,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1471,14 +1543,37 @@
         <v>21</v>
       </c>
       <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1624924800</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1625500799</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
@@ -1563,10 +1658,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1594,49 +1689,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:16">
@@ -1647,40 +1742,40 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
@@ -1691,40 +1786,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
@@ -1735,40 +1830,40 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
@@ -1779,40 +1874,40 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1823,40 +1918,40 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1867,40 +1962,40 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1911,40 +2006,40 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1955,40 +2050,40 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1999,40 +2094,40 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2043,40 +2138,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="P11" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2087,40 +2182,40 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="P12" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2131,40 +2226,216 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>48</v>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2179,8 +2450,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2191,10 +2462,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2202,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2210,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -116,13 +116,13 @@
     <t>9,10,11,12</t>
   </si>
   <si>
-    <t>gift_sxlb</t>
-  </si>
-  <si>
-    <t>act_004_sxlb</t>
-  </si>
-  <si>
-    <t>盛夏礼包</t>
+    <t>gift_khlb</t>
+  </si>
+  <si>
+    <t>act_005_khlb</t>
+  </si>
+  <si>
+    <t>狂欢礼包</t>
   </si>
   <si>
     <t>13,14,15,16</t>
@@ -362,61 +362,61 @@
     <t>10587,10588,10589</t>
   </si>
   <si>
-    <t>"60万金币","6万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,西瓜增加10%;\n任意购买2个礼包,西瓜增加30%;\n任意购买3个礼包,西瓜增加50%。"</t>
+    <t>"60万金币","6万","积分加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","积分加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","积分加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,积分增加10%;\n任意购买2个礼包,积分增加30%;\n任意购买3个礼包,积分增加50%。"</t>
   </si>
   <si>
     <t>10590,10591,10592</t>
   </si>
   <si>
-    <t>"180万金币","7万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","西瓜加成"</t>
+    <t>"180万金币","7万","积分加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","积分加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","积分加成"</t>
   </si>
   <si>
     <t>10593,10594,10595</t>
   </si>
   <si>
-    <t>"980万金币","38万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","xg_icon_1"</t>
+    <t>"980万金币","38万","积分加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","积分加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","jf_icon_1"</t>
   </si>
   <si>
     <t>10596,10597,10598</t>
   </si>
   <si>
-    <t>"4980万金币","180万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","xg_icon_1"</t>
+    <t>"4980万金币","180万","积分加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","jf_icon_1"</t>
   </si>
   <si>
     <t>line|行号</t>
@@ -425,7 +425,7 @@
     <t>content|规则内容</t>
   </si>
   <si>
-    <t>1、购买礼包，在3D捕鱼、街机捕鱼、海底冒险中获得的西瓜在排行榜中有额外加成</t>
+    <t>1、购买礼包，活动中获得的积分在排行榜中有额外加成</t>
   </si>
   <si>
     <t>2、加成效果仅限购买礼包当日</t>
@@ -436,12 +436,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,62 +450,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,9 +477,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,6 +499,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -547,16 +530,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -564,7 +547,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -579,8 +562,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,9 +593,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,55 +633,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,127 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,16 +828,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,25 +887,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,27 +924,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,162 +942,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,239 +1422,237 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="12.625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="26.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:9">
-      <c r="A2" s="3">
+    <row r="2" s="10" customFormat="1" spans="1:9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>1617667200</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>1618243199</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1618272000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1622476799</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>1624320000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>1624895999</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4">
-        <v>1624924800</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1625500799</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="5">
+        <v>1626739200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1627315199</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,785 +1665,797 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="48" style="4" customWidth="1"/>
-    <col min="10" max="10" width="68.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="77.5" style="4" customWidth="1"/>
-    <col min="12" max="13" width="78.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="96.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="126.75" style="4" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="48" style="5" customWidth="1"/>
+    <col min="10" max="10" width="68.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="77.5" style="5" customWidth="1"/>
+    <col min="12" max="13" width="78.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="96.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="126.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:16">
-      <c r="A2" s="3">
+    <row r="2" s="4" customFormat="1" spans="1:16">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="3">
+    <row r="3" s="4" customFormat="1" spans="1:16">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="3">
+    <row r="4" s="4" customFormat="1" spans="1:16">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="3">
+    <row r="5" s="4" customFormat="1" spans="1:16">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,7 +2470,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2468,19 +2487,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
     </row>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -436,10 +436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -464,16 +464,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,17 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,70 +517,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,7 +532,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,8 +568,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,13 +633,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,157 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,21 +824,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -853,11 +838,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,8 +889,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,40 +924,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,8 +1422,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1540,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>1624320000</v>
+        <v>1627344000</v>
       </c>
       <c r="F4" s="5">
-        <v>1624895999</v>
+        <v>1627919999</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>12</v>
@@ -1552,7 +1552,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1581,7 +1581,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1667,8 +1667,8 @@
   <sheetPr/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2470,7 +2470,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,12 +124,6 @@
     <t>gift_khlb</t>
   </si>
   <si>
-    <t>act_005_khlb</t>
-  </si>
-  <si>
-    <t>狂欢礼包</t>
-  </si>
-  <si>
     <t>13,14,15,16</t>
   </si>
   <si>
@@ -429,19 +428,21 @@
   </si>
   <si>
     <t>2、加成效果仅限购买礼包当日</t>
+  </si>
+  <si>
+    <t>爱心礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_axlb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,150 +464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -617,8 +474,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,194 +494,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -826,251 +503,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1102,61 +537,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1414,19 +805,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" style="11" customWidth="1"/>
     <col min="2" max="3" width="26.5" style="11" customWidth="1"/>
@@ -1439,7 +830,7 @@
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1497,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1526,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1552,10 +943,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1563,115 +954,114 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5">
-        <v>1626739200</v>
+        <v>1628553600</v>
       </c>
       <c r="F5" s="5">
-        <v>1627315199</v>
+        <v>1629129599</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
@@ -1691,57 +1081,57 @@
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1749,43 +1139,43 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:16">
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1793,43 +1183,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:16">
+    </row>
+    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1837,43 +1227,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:16">
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1881,43 +1271,43 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1925,43 +1315,43 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1969,43 +1359,43 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2013,43 +1403,43 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2057,43 +1447,43 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="J9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2101,43 +1491,43 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2145,43 +1535,43 @@
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="J11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="P11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2189,43 +1579,43 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="J12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="P12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2233,43 +1623,43 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="J13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2277,43 +1667,43 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="P14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2321,43 +1711,43 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="P15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2365,43 +1755,43 @@
         <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="P16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2409,103 +1799,102 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="O17" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -361,80 +361,81 @@
     <t>10587,10588,10589</t>
   </si>
   <si>
-    <t>"60万金币","6万","积分加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","积分加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","积分加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","jf_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","jf_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","jf_icon_1"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,积分增加10%;\n任意购买2个礼包,积分增加30%;\n任意购买3个礼包,积分增加50%。"</t>
-  </si>
-  <si>
     <t>10590,10591,10592</t>
   </si>
   <si>
-    <t>"180万金币","7万","积分加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","积分加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","积分加成"</t>
-  </si>
-  <si>
     <t>10593,10594,10595</t>
   </si>
   <si>
-    <t>"980万金币","38万","积分加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","积分加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","jf_icon_1"</t>
-  </si>
-  <si>
     <t>10596,10597,10598</t>
   </si>
   <si>
-    <t>"4980万金币","180万","积分加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","jf_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","jf_icon_1"</t>
-  </si>
-  <si>
     <t>line|行号</t>
   </si>
   <si>
     <t>content|规则内容</t>
   </si>
   <si>
-    <t>1、购买礼包，活动中获得的积分在排行榜中有额外加成</t>
-  </si>
-  <si>
     <t>2、加成效果仅限购买礼包当日</t>
   </si>
   <si>
-    <t>爱心礼包</t>
+    <t>清凉礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_006_axlb</t>
+    <t>act_007_qllb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","6万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","雪糕加成"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,雪糕增加10%;\n任意购买2个礼包,雪糕增加30%;\n任意购买3个礼包,雪糕增加50%。"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","qllb_icon_xgjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","qllb_icon_xgjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","qllb_icon_xgjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","qllb_icon_xgjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","qllb_icon_xgjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","qllb_icon_xgjc"</t>
+  </si>
+  <si>
+    <t>1、购买礼包，活动中获得的雪糕在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +481,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -507,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +545,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -813,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -954,16 +966,16 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="F5" s="5">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1058,7 +1070,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1679,25 +1691,25 @@
         <v>42</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>50</v>
@@ -1711,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>73</v>
@@ -1723,25 +1735,25 @@
         <v>42</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>50</v>
@@ -1755,7 +1767,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>78</v>
@@ -1767,25 +1779,25 @@
         <v>42</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>50</v>
@@ -1799,7 +1811,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>82</v>
@@ -1811,25 +1823,25 @@
         <v>42</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>118</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>50</v>
@@ -1858,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1870,10 +1882,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1881,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1889,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -112,9 +114,6 @@
     <t>gift_hflb</t>
   </si>
   <si>
-    <t>act_003_hflb</t>
-  </si>
-  <si>
     <t>话费礼包</t>
   </si>
   <si>
@@ -435,7 +434,11 @@
     <t>"hflb_btn_bx3","ty_icon_yb_5","qllb_icon_xgjc"</t>
   </si>
   <si>
-    <t>1、购买礼包，活动中获得的雪糕在排行榜中有额外加成</t>
+    <t>act_008_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、购买礼包，活动中获得的欢乐券在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -455,12 +458,14 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -468,16 +473,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -826,7 +834,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -937,25 +945,25 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="5">
-        <v>1627344000</v>
+        <v>1629763200</v>
       </c>
       <c r="F4" s="5">
-        <v>1627919999</v>
+        <v>1630339199</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,13 +971,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5">
         <v>1629158400</v>
@@ -981,10 +989,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1098,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,40 +1159,40 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1195,40 +1203,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1239,40 +1247,40 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1283,40 +1291,40 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1327,40 +1335,40 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1371,40 +1379,40 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1415,40 +1423,40 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1459,40 +1467,40 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="J9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1503,40 +1511,40 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1547,40 +1555,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="J11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="P11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1591,40 +1599,40 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="J12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="P12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1635,40 +1643,40 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="J13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1676,43 +1684,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="J14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="O14" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1720,43 +1728,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1764,43 +1772,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="J16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="L16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1808,43 +1816,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="P17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1871,7 +1879,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1882,10 +1890,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1901,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -378,75 +378,75 @@
     <t>2、加成效果仅限购买礼包当日</t>
   </si>
   <si>
-    <t>清凉礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_007_qllb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","6万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","雪糕加成"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,雪糕增加10%;\n任意购买2个礼包,雪糕增加30%;\n任意购买3个礼包,雪糕增加50%。"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","qllb_icon_xgjc"</t>
-  </si>
-  <si>
     <t>act_008_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、购买礼包，活动中获得的欢乐券在排行榜中有额外加成</t>
+    <t>act_009_zqlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","6万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,月饼增加10%;\n任意购买2个礼包,月饼增加30%;\n任意购买3个礼包,月饼增加50%。"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","月饼加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","月饼加成"</t>
+  </si>
+  <si>
+    <t>1、购买礼包，活动中获得的月饼在排行榜中有额外加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","zqlb_icon_ybjc"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,14 +489,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -524,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,9 +545,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -834,7 +823,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -945,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -963,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -977,13 +966,13 @@
         <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="5">
-        <v>1629158400</v>
+        <v>1632182400</v>
       </c>
       <c r="F5" s="5">
-        <v>1629734399</v>
+        <v>1632758399</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -992,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1077,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1699,25 +1688,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1743,25 +1732,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1787,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1831,25 +1820,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -1878,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1901,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,26 +420,26 @@
     <t>"4980万金币","180万","月饼加成"</t>
   </si>
   <si>
-    <t>1、购买礼包，活动中获得的月饼在排行榜中有额外加成</t>
+    <t>"hflb_btn_bx","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>1、购买礼包，活动中获得的欢乐券在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","zqlb_icon_ybjc"</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +545,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,7 +826,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -940,10 +943,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="5">
-        <v>1629763200</v>
+        <v>1634601600</v>
       </c>
       <c r="F4" s="5">
-        <v>1630339199</v>
+        <v>1635177599</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>12</v>
@@ -952,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -981,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1066,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1502,8 +1505,8 @@
       <c r="C10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
+      <c r="D10" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>40</v>
@@ -1546,8 +1549,8 @@
       <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>72</v>
+      <c r="D11" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>40</v>
@@ -1590,8 +1593,8 @@
       <c r="C12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>77</v>
+      <c r="D12" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>40</v>
@@ -1634,8 +1637,8 @@
       <c r="C13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
+      <c r="D13" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>40</v>
@@ -1697,13 +1700,13 @@
         <v>112</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>113</v>
@@ -1741,13 +1744,13 @@
         <v>116</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>113</v>
@@ -1785,13 +1788,13 @@
         <v>118</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="L16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>113</v>
@@ -1829,13 +1832,13 @@
         <v>119</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>113</v>
@@ -1868,7 +1871,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1890,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="124">
   <si>
     <t>index|序号</t>
   </si>
@@ -382,64 +382,55 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_009_zqlb</t>
+    <t>act_010_khlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>中秋礼包</t>
+    <t>狂欢礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"60万金币","6万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,月饼增加10%;\n任意购买2个礼包,月饼增加30%;\n任意购买3个礼包,月饼增加50%。"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>1、购买礼包，活动中获得的欢乐券在排行榜中有额外加成</t>
+    <t>"60万金币","6万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>1、购买礼包，活动中获得的南瓜在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,南瓜增加10%;\n任意购买2个礼包,南瓜增加30%;\n任意购买3个礼包,南瓜增加50%。"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","act_010_khlb_icon_ngjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_010_khlb_icon_ngjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_010_khlb_icon_ngjc"</t>
   </si>
 </sst>
 </file>
@@ -826,7 +817,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -955,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,10 +963,10 @@
         <v>109</v>
       </c>
       <c r="E5" s="5">
-        <v>1632182400</v>
+        <v>1635206400</v>
       </c>
       <c r="F5" s="5">
-        <v>1632758399</v>
+        <v>1635782399</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -984,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1681,8 +1672,8 @@
       <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>63</v>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>40</v>
@@ -1700,16 +1691,16 @@
         <v>112</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1725,8 +1716,8 @@
       <c r="C15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>72</v>
+      <c r="D15" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>40</v>
@@ -1735,25 +1726,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1769,8 +1760,8 @@
       <c r="C16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>77</v>
+      <c r="D16" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>40</v>
@@ -1779,25 +1770,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>123</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1813,8 +1804,8 @@
       <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>81</v>
+      <c r="D17" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>40</v>
@@ -1823,25 +1814,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="J17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -1862,7 +1853,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1871,7 +1862,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1893,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
   <si>
     <t>index|序号</t>
   </si>
@@ -375,9 +375,6 @@
     <t>content|规则内容</t>
   </si>
   <si>
-    <t>2、加成效果仅限购买礼包当日</t>
-  </si>
-  <si>
     <t>act_008_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -417,10 +414,6 @@
     <t>"4980万金币","180万","南瓜加成"</t>
   </si>
   <si>
-    <t>1、购买礼包，活动中获得的南瓜在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"任意购买1个礼包,南瓜增加10%;\n任意购买2个礼包,南瓜增加30%;\n任意购买3个礼包,南瓜增加50%。"</t>
   </si>
   <si>
@@ -431,6 +424,116 @@
   </si>
   <si>
     <t>"hflb_btn_bx3","ty_icon_yxb_5","act_010_khlb_icon_ngjc"</t>
+  </si>
+  <si>
+    <t>act_011_ssylb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,19,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10654,10655,10656</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10657,10658,10659</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10660,10661,10662</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10663,10664,10665</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_ssylb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_ssylb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_ssylb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","28","水滴*1"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","48","水滴*2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","98","水滴*3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","58","水滴*3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","98","水滴*5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168","水滴*10"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","168","太阳*1"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","338","太阳*2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","688","太阳*5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","688","太阳*5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","338","太阳*2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","1688","太阳*10"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_flq3","zpg_icon_shui"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_flq3","zpg_icon_yg"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_flq4","zpg_icon_shui"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_flq4","zpg_icon_yg"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_flq5","zpg_icon_shui"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_flq5","zpg_icon_yg"</t>
+  </si>
+  <si>
+    <t>"可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -816,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -928,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -957,10 +1060,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E5" s="5">
         <v>1635206400</v>
@@ -975,12 +1078,37 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1636416000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1637596799</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1060,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1682,25 +1810,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="J14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="O14" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1726,25 +1854,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1770,25 +1898,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="J16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="O16" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1814,41 +1942,205 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1862,7 +2154,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1880,20 +2172,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="153">
   <si>
     <t>index|序号</t>
   </si>
@@ -379,53 +379,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_010_khlb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","6万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,南瓜增加10%;\n任意购买2个礼包,南瓜增加30%;\n任意购买3个礼包,南瓜增加50%。"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","act_010_khlb_icon_ngjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_010_khlb_icon_ngjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_010_khlb_icon_ngjc"</t>
-  </si>
-  <si>
     <t>act_011_ssylb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -534,6 +487,61 @@
   <si>
     <t>"可以在小游戏苹果大战中使用",</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_012_gelb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","act_012_gelb_gelb_icon_hjtjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_012_gelb_gelb_icon_hjtjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_012_gelb_gelb_icon_hjtjc"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,火鸡腿增加10%;\n任意购买2个礼包,火鸡腿增加30%;\n任意购买3个礼包,火鸡腿增加50%。"</t>
+  </si>
+  <si>
+    <t>购买礼包，在游戏中获取的火鸡腿在排行榜中有额外加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成效果仅限购买礼包当日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","6万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","火鸡腿加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","火鸡腿加成"</t>
   </si>
 </sst>
 </file>
@@ -919,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1060,16 +1068,16 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="F5" s="5">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1078,7 +1086,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,13 +1094,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5">
         <v>1636416000</v>
@@ -1104,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1188,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1810,25 +1818,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1854,25 +1862,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1898,25 +1906,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1942,25 +1950,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -1971,10 +1979,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>39</v>
@@ -1986,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="O18" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>49</v>
@@ -2015,10 +2023,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>51</v>
@@ -2030,25 +2038,25 @@
         <v>41</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>49</v>
@@ -2059,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>56</v>
@@ -2074,25 +2082,25 @@
         <v>41</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>49</v>
@@ -2103,10 +2111,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>60</v>
@@ -2118,25 +2126,25 @@
         <v>41</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>49</v>
@@ -2154,7 +2162,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I17" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2172,10 +2180,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,59 +489,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_012_gelb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","act_012_gelb_gelb_icon_hjtjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_012_gelb_gelb_icon_hjtjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_012_gelb_gelb_icon_hjtjc"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,火鸡腿增加10%;\n任意购买2个礼包,火鸡腿增加30%;\n任意购买3个礼包,火鸡腿增加50%。"</t>
-  </si>
-  <si>
-    <t>购买礼包，在游戏中获取的火鸡腿在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>加成效果仅限购买礼包当日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"60万金币","6万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","火鸡腿加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","火鸡腿加成"</t>
+    <t>加成礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_013_xqlb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","6万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,雪球增加10%;\n任意购买2个礼包,雪球增加30%;\n任意购买3个礼包,雪球增加50%。"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","雪球加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","雪球加成"</t>
+  </si>
+  <si>
+    <t>购买礼包，在游戏中获取的雪球在排行榜中有额外加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_013_xqlb_jclb_icon_xqjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_013_xqlb_jclb_icon_xqjc"</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1068,16 +1068,16 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="5">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="F5" s="5">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:H25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1818,25 +1818,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1862,25 +1862,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1906,25 +1906,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="L16" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1950,25 +1950,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="O17" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -2162,7 +2162,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I16:I17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="198">
   <si>
     <t>index|序号</t>
   </si>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>加成效果仅限购买礼包当日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>加成礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -531,10 +527,6 @@
     <t>"4980万金币","180万","雪球加成"</t>
   </si>
   <si>
-    <t>购买礼包，在游戏中获取的雪球在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
   </si>
   <si>
@@ -542,6 +534,187 @@
   </si>
   <si>
     <t>"hflb_btn_bx3","ty_icon_yxb_5","act_013_xqlb_jclb_icon_xqjc"</t>
+  </si>
+  <si>
+    <t>10689,10690,10691</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10693,10694,10695</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10697,10698,10699</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10692</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10696</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10704</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10701,10702,10703</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_all_gift_id|一键购买礼包Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_khlb_1221</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_014_khlb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22,23,24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_khlb_1221</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_khlb_1221</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","6万","水滴*2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","10万","水滴*4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万","水滴*6"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","16万","水滴*4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","35万","水滴*6"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","75万","水滴*10"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","160万","太阳*4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","70万","太阳*2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","33万","太阳*1"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_flq3","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","5万","5万"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","10万","10万"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","15万","15万"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkfl_btn_bx","ty_icon_yb_3","hllb_icon_cqjc"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","pay_icon_gold2","ty_icon_yxb_3"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","pay_icon_gold2","zpg_icon_yg"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","pay_icon_gold2","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","pay_icon_gold2","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","pay_icon_gold3","ty_icon_yxb_4"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","pay_icon_gold3","zpg_icon_yg"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","pay_icon_gold3","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","pay_icon_gold3","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","pay_icon_gold4","ty_icon_yxb_5"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","pay_icon_gold4","zpg_icon_shui"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","pay_icon_gold4","zpg_icon_yg"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","pay_icon_gold4","zpg_icon_shui"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_all_give|一键购买加赠内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -928,7 +1101,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1068,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5">
         <v>1638835200</v>
@@ -1086,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1119,10 +1292,33 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1640044800</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1640620799</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1194,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1205,22 +1401,23 @@
     <col min="1" max="1" width="12.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="48" style="5" customWidth="1"/>
-    <col min="10" max="10" width="68.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="77.5" style="5" customWidth="1"/>
-    <col min="12" max="13" width="78.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="96.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="126.75" style="5" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="5"/>
+    <col min="4" max="4" width="44" style="6" customWidth="1"/>
+    <col min="5" max="5" width="49.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="43.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="48" style="5" customWidth="1"/>
+    <col min="12" max="12" width="68.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="77.5" style="5" customWidth="1"/>
+    <col min="14" max="15" width="78.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="96.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="126.75" style="5" customWidth="1"/>
+    <col min="18" max="18" width="22.25" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1230,47 +1427,53 @@
       <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1280,41 +1483,42 @@
       <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1324,41 +1528,42 @@
       <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1368,41 +1573,42 @@
       <c r="C4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1412,41 +1618,42 @@
       <c r="C5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1456,41 +1663,42 @@
       <c r="C6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1500,41 +1708,42 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1544,41 +1753,42 @@
       <c r="C8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1588,41 +1798,42 @@
       <c r="C9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1632,41 +1843,41 @@
       <c r="C10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1676,41 +1887,41 @@
       <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1720,41 +1931,41 @@
       <c r="C12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1764,41 +1975,41 @@
       <c r="C13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1808,41 +2019,41 @@
       <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1852,41 +2063,41 @@
       <c r="C15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="L15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1896,41 +2107,41 @@
       <c r="C16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="L16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1940,41 +2151,41 @@
       <c r="C17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="M17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1984,41 +2195,41 @@
       <c r="C18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2028,41 +2239,41 @@
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2072,41 +2283,41 @@
       <c r="C20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2116,37 +2327,234 @@
       <c r="C21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="R21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2161,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2180,20 +2588,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>index|序号</t>
   </si>
@@ -493,49 +493,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_013_xqlb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","6万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,雪球增加10%;\n任意购买2个礼包,雪球增加30%;\n任意购买3个礼包,雪球增加50%。"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","雪球加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_013_xqlb_jclb_icon_xqjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_013_xqlb_jclb_icon_xqjc"</t>
-  </si>
-  <si>
     <t>10689,10690,10691</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -652,10 +609,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"hflb_btn_bx","pay_icon_gold2","ty_icon_yxb_3"</t>
   </si>
   <si>
@@ -715,6 +668,57 @@
   <si>
     <t>"200万金币",</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包，在游戏中获得的灯笼在排行榜中有额外加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成效果仅限购买礼包当日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_015_jclb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","6万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,灯笼增加10%;\n任意购买2个礼包,灯笼增加30%;\n任意购买3个礼包,灯笼增加50%。"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","灯笼加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","jclb_icon_dljc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","jclb_icon_dljc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","jclb_icon_dljc"</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1105,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1241,16 +1245,16 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E5" s="5">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="F5" s="5">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1259,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1296,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E7" s="5">
         <v>1640044800</v>
@@ -1314,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
@@ -1449,7 +1453,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>68</v>
@@ -2029,25 +2033,25 @@
         <v>41</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>49</v>
@@ -2073,25 +2077,25 @@
         <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>49</v>
@@ -2117,25 +2121,25 @@
         <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>49</v>
@@ -2161,25 +2165,25 @@
         <v>41</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>49</v>
@@ -2214,7 +2218,7 @@
         <v>119</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>131</v>
@@ -2366,13 +2370,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>39</v>
@@ -2384,25 +2388,25 @@
         <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>49</v>
@@ -2413,13 +2417,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>51</v>
@@ -2431,25 +2435,25 @@
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="M23" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>135</v>
@@ -2463,13 +2467,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>56</v>
@@ -2481,25 +2485,25 @@
         <v>41</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="M24" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>135</v>
@@ -2513,13 +2517,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>60</v>
@@ -2531,25 +2535,25 @@
         <v>41</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>135</v>
@@ -2569,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2588,10 +2592,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,6 @@
     <t>content|规则内容</t>
   </si>
   <si>
-    <t>act_008_hflb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>act_011_ssylb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -670,10 +666,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>购买礼包，在游戏中获得的灯笼在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>加成效果仅限购买礼包当日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -719,6 +711,14 @@
   </si>
   <si>
     <t>"hflb_btn_bx3","ty_icon_yxb_5","jclb_icon_dljc"</t>
+  </si>
+  <si>
+    <t>act_016_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包，在游戏中获得的欢乐券在排行榜中有额外加成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1216,16 +1216,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5">
-        <v>1634601600</v>
+        <v>1641859200</v>
       </c>
       <c r="F4" s="5">
-        <v>1635177599</v>
+        <v>1643039999</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>12</v>
@@ -1234,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,10 +1245,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="5">
         <v>1640649600</v>
@@ -1263,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1271,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E6" s="5">
         <v>1636416000</v>
@@ -1289,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="E7" s="5">
         <v>1640044800</v>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1387,8 +1387,8 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
@@ -1453,7 +1453,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>68</v>
@@ -2033,25 +2033,25 @@
         <v>41</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>49</v>
@@ -2077,25 +2077,25 @@
         <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="L15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="Q15" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>49</v>
@@ -2121,25 +2121,25 @@
         <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="Q16" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>49</v>
@@ -2165,25 +2165,25 @@
         <v>41</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="Q17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>49</v>
@@ -2194,10 +2194,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>39</v>
@@ -2209,25 +2209,25 @@
         <v>41</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="L18" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>49</v>
@@ -2238,10 +2238,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>51</v>
@@ -2253,25 +2253,25 @@
         <v>41</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="L19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>49</v>
@@ -2282,10 +2282,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>56</v>
@@ -2297,25 +2297,25 @@
         <v>41</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="L20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>49</v>
@@ -2326,10 +2326,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>60</v>
@@ -2341,25 +2341,25 @@
         <v>41</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="L21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>49</v>
@@ -2370,13 +2370,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>39</v>
@@ -2388,25 +2388,25 @@
         <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>49</v>
@@ -2417,13 +2417,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>51</v>
@@ -2435,28 +2435,28 @@
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>49</v>
@@ -2467,13 +2467,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>56</v>
@@ -2485,28 +2485,28 @@
         <v>41</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="K24" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>49</v>
@@ -2517,13 +2517,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>60</v>
@@ -2535,28 +2535,28 @@
         <v>41</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>49</v>
@@ -2573,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_gifts_config.xlsx
+++ b/config_Release/act_ty_gifts_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="200">
   <si>
     <t>index|序号</t>
   </si>
@@ -485,10 +485,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>加成礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10689,10690,10691</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -666,59 +662,77 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>加成效果仅限购买礼包当日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_015_jclb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","6万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,灯笼增加10%;\n任意购买2个礼包,灯笼增加30%;\n任意购买3个礼包,灯笼增加50%。"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","灯笼加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","jclb_icon_dljc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yxb_4","jclb_icon_dljc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yxb_5","jclb_icon_dljc"</t>
-  </si>
-  <si>
     <t>act_016_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>购买礼包，在游戏中获得的欢乐券在排行榜中有额外加成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>新春礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_017_xclb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","6万","元宝*6"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","12万","元宝*12"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","18万","元宝*18"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万","元宝*8"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","12万","元宝*12"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万","元宝*18"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万","元宝*18"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万","元宝*38"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万","元宝*80"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万","元宝*38"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万","元宝80"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","180万","元宝180"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"可在元宝兑奖中兑换奖励",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","yxdr_bg_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","yxdr_bg_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","yxdr_bg_1"</t>
   </si>
 </sst>
 </file>
@@ -795,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,6 +839,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1104,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -1234,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1248,13 +1265,13 @@
         <v>183</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="E5" s="5">
-        <v>1640649600</v>
+        <v>1643068800</v>
       </c>
       <c r="F5" s="5">
-        <v>1641225599</v>
+        <v>1645459199</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -1263,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,13 +1317,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="E7" s="5">
         <v>1640044800</v>
@@ -1318,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1396,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
@@ -1453,7 +1470,7 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
@@ -1687,7 +1704,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>68</v>
@@ -2013,179 +2030,183 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="J17" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="L17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2218,7 +2239,7 @@
         <v>118</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>130</v>
@@ -2370,13 +2391,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>39</v>
@@ -2388,25 +2409,25 @@
         <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>49</v>
@@ -2417,13 +2438,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>51</v>
@@ -2435,25 +2456,25 @@
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>134</v>
@@ -2467,13 +2488,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>56</v>
@@ -2485,25 +2506,25 @@
         <v>41</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="K24" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>134</v>
@@ -2517,13 +2538,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>60</v>
@@ -2535,25 +2556,25 @@
         <v>41</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>134</v>
@@ -2573,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2592,20 +2613,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
